--- a/docs/CS字符扩展功能参考.xlsx
+++ b/docs/CS字符扩展功能参考.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\covscript\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1304,7 +1304,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CCovariant Script编程语言 http://covscript.org</oddHeader>
